--- a/BScomparison_table(ebay).xlsx
+++ b/BScomparison_table(ebay).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WD 6TB Certified Refurbished Elements, External Hard Drive - RWDBWLG0060HBK-NESN</t>
+          <t>WD 14TB Certified Refurbished My Book, Desktop External Hard Drive -</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$99.99</t>
+          <t>$189.99</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WD 14TB Certified Refurbished My Book, Desktop External Hard Drive -</t>
+          <t>WD 6TB Certified Refurbished Elements, External Hard Drive - RWDBWLG0060HBK-NESN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$189.99</t>
+          <t>$99.99</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WD 3TB Certified Refurbished My Book, Desktop External HDD - RWDBBGB0030HBK-NESN</t>
+          <t>WD 2TB Certified Refurbished Elements, External Hard Drive - RWDBU6Y0020BBK-WESN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRAND NEW WD Black P10 5TB Portable External Game Hard Drive for ps5 SEALED</t>
+          <t>WD External Hard Drive My Passport 2 TB Password Protection Stockage Portable</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$51.00</t>
+          <t>$16.50</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRAND NEW WD Black P10 5TB Portable External Game Hard Drive for ps5 ps  box</t>
+          <t>Avolusion 1 TB, External, 2.5" (HD250U3-X1-1TB-XBOX) Hard Drive - Black</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$48.00</t>
+          <t>$10.50</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Toshiba Canvio Advance Plus - 4TB External Hard Drive  USB 3.2 Gen 1 - Green</t>
+          <t>Seagate 8TB External Desktop Drive USB 3.0 Black | Tested Works Great!</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$37.00</t>
+          <t>$53.00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Toshiba Canvio Advance Plus - 4TB External Hard Drive  USB 3.2 Gen 1 NEW</t>
+          <t>Lacie 4TB HDD Rugged LRD0TU7 Thunderbolt USB-C Portable Drive</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$35.00</t>
+          <t>$16.50</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WD External Hard Drive My Passport 2 TB Password Protection Stockage Portable</t>
+          <t>Seagate Game Drive 2TB Portable Hard Drive</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$15.50</t>
+          <t>$14.00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Avolusion 1 TB, External, 2.5" (HD250U3-X1-1TB-XBOX) Hard Drive - Black</t>
+          <t>Open Box: WD_BLACK 2TB P10 Game Drive - Portable External Hard Drive HDD, Compat</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$10.50</t>
+          <t>$44.99</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>☆☆☆☆☆</t>
+          <t>★★★★★</t>
         </is>
       </c>
     </row>
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lacie 4TB HDD Rugged LRD0TU7 Thunderbolt USB-C Portable Drive</t>
+          <t>WD 2TB Certified Refurbished Elements, External Hard Drive - RWDBUZG0020BBK-WESN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$15.00</t>
+          <t>$49.99</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>New ListingBRAND NEW WD Black P10 5TB Portable External Game Hard Drive for ps5 ps  box</t>
+          <t>Cirago External Hard Drive USB 3.0 for PC, MacBook, Xbox One, Xbox 360, PS4, Mac</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$48.00</t>
+          <t>$16.99 to $58.99</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WD 2TB Certified Refurbished Elements, External Hard Drive - RWDBU6Y0020BBK-WESN</t>
+          <t>Seagate 1TB One Touch Portable Hard Drive External USB 3.2 Gen 1 Black</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$49.99</t>
+          <t>Tap item to see current priceSee price</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>☆☆☆☆☆</t>
+          <t>★★★★½</t>
         </is>
       </c>
     </row>
@@ -793,17 +793,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WD 2TB Certified Refurbished Elements, External Hard Drive - RWDBUZG0020BBK-WESN</t>
+          <t>Avolusion 1 TB, External, 2.5" (HD250U3-X1-1TB-XBOX) Hard Drive - Black</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$49.99</t>
+          <t>$10.50</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>☆☆☆☆☆</t>
+          <t>★★★★½</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>External Hard Drive Case 2TB USB 3.0 Portable Disk Enclosure 2.5" HDD Sata SSD</t>
+          <t>WD 3TB Certified Refurbished My Book, Desktop External HDD - RWDBBGB0030HBK-NESN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$12.99</t>
+          <t>$49.99</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,17 +837,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>New ListingToshiba Canvio Advance Plus - 4TB External Hard Drive  USB 3.2 Gen 1 - Green</t>
+          <t>External Hard Drive Case 2TB USB 3.0 Portable Disk Enclosure 2.5" HDD Sata SSD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$37.00</t>
+          <t>$12.99</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>★★★★½</t>
+          <t>☆☆☆☆☆</t>
         </is>
       </c>
     </row>
@@ -859,12 +859,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Open Box: WD_BLACK 2TB P10 Game Drive - Portable External Hard Drive HDD, Compat</t>
+          <t>Seagate Expansion 14TB Hard Drive External HDD - USB 3.0, w/ Data Recovery</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$44.99</t>
+          <t>$194.99</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cirago External Hard Drive USB 3.0 for PC, MacBook, Xbox One, Xbox 360, PS4, Mac</t>
+          <t>Western Digital WDBYVG0020BBK-0B My Passport 2TB HDD</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$16.99 to $58.99</t>
+          <t>$20.00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Lacie Rugged RUFWU3B Fire Wire USB 3.0 1TB External Hard Drive</t>
+          <t>WD 4TB Certified Refurbished Elements, External Hard Drive - RWDBU6Y0040BBK-WESN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$21.99</t>
+          <t>$79.99</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,17 +925,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WD 1TB Elements SE, Portable External Hard Drive - WDBEPK0010BBK-WESN</t>
+          <t>WD 3TB Certified Refurbished Elements Portable External HDD RWDBU6Y0030BBK-WESN</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$54.99</t>
+          <t>$59.99</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>★★★★★</t>
+          <t>☆☆☆☆☆</t>
         </is>
       </c>
     </row>
@@ -947,12 +947,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WD 4TB Certified Refurbished Elements, External Hard Drive - RWDBU6Y0040BBK-WESN</t>
+          <t>ORICO 2/4/5 Bay USB 3.0 External Hard Drive Enclosure For 2.5/3.5" SATA HDD 80TB</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$79.99</t>
+          <t>$83.99 to $159.99</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ORICO 2/4/5 Bay USB 3.0 External Hard Drive Enclosure For 2.5/3.5" SATA HDD 80TB</t>
+          <t>2.5" External Hard Drive Box  1TB Portable Hard Disk USB3.0 High  Z2V7</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$83.99 to $159.99</t>
+          <t>$14.37</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WD 3TB Certified Refurbished Elements Portable External HDD RWDBU6Y0030BBK-WESN</t>
+          <t>WD 5TB Certified Refurbished Elements SE, Portable External Hard Drive -</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$59.99</t>
+          <t>$89.99</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WD 5TB Certified Refurbished Elements SE, Portable External Hard Drive -</t>
+          <t>Sealed New Boxed Toshiba Portable External Hard Drive 500GB USB 2.0 593212-40</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$89.99</t>
+          <t>$9.99</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1035,17 +1035,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Seagate Expansion 14TB Hard Drive External HDD - USB 3.0, w/ Data Recovery</t>
+          <t>Lacie Rugged RUFWU3B Fire Wire USB 3.0 1TB External Hard Drive</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$194.99</t>
+          <t>$21.99</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>★★★★★</t>
+          <t>☆☆☆☆☆</t>
         </is>
       </c>
     </row>
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WD MY PASSPORT WDBYFT0020BBK-0B 2TB HARD DRIVE W/Cord</t>
+          <t>Seagate Expansion 500G 1TB 2TB External USB 3.0 Portable Hard Drive STEA1000400</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$20.00</t>
+          <t>$29.98 to $49.98</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1079,17 +1079,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Seagate Expansion 500G 1TB 2TB External USB 3.0 Portable Hard Drive STEA1000400</t>
+          <t>WD 1TB Elements SE, Portable External Hard Drive - WDBEPK0010BBK-WESN</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$29.98 to $49.98</t>
+          <t>$54.99</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>☆☆☆☆☆</t>
+          <t>★★★★★</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Seagate STKP14000400 Expansion 14TB External Hard Drive HDD USB 3.0</t>
+          <t>WD My Passport 2TB Portable External Hard Disk Drive Storage HDD for Windows PC</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$194.99</t>
+          <t>$48.00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HardDisk Extreme 500G 1T 2TB 256TB Portable USB 3.1 External Hard for Laptop PS5</t>
+          <t>WD MY PASSPORT WDBYFT0020BBK-0B 2TB HARD DRIVE W/Cord</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$19.99 to $54.99</t>
+          <t>$20.00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Western Digital WDBABV5000ABK-00 500GB External Hard Drive/HDD | Tested Working</t>
+          <t>Seagate STKP14000400 Expansion 14TB External Hard Drive HDD USB 3.0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$19.89</t>
+          <t>$194.99</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>☆☆☆☆☆</t>
+          <t>★★★★★</t>
         </is>
       </c>
     </row>
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Toshiba Canvio Basics Portable External Hard Drive Black-500GB/1TB/2TB/4TB- NEW</t>
+          <t>HardDisk Extreme 500G 1T 2TB 256TB Portable USB 3.1 External Hard for Laptop PS5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$32.99 to $59.99</t>
+          <t>$22.99 to $54.99</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6TB EXTERNAL HARD DRIVE 2.5" HDD BASIC STORAGE USB 3.0 *BRAND NEW OPEN BOX*</t>
+          <t>Toshiba Canvio Basics Portable External Hard Drive Black-500GB/1TB/2TB/4TB- NEW</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$44.99</t>
+          <t>$32.99 to $59.99</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1233,17 +1233,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WD My Passport 2TB Portable External Hard Disk Drive Storage HDD for Windows PC</t>
+          <t>Avolusion PRO-Z Series 12TB USB 3.0 External Hard Drive for WindowsOS PC, Laptop</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$48.00</t>
+          <t>$129.99</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>★★★★★</t>
+          <t>☆☆☆☆☆</t>
         </is>
       </c>
     </row>
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WD_BLACK 5TB P10 Game Drive for Xbox, Certified Refurbished Portable External</t>
+          <t>Avolusion HDDGEAR PRO X 8TB External Gaming Hard Drive for PS5 Game Console HDD</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$99.99</t>
+          <t>$109.99</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,17 +1277,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Avolusion HDDGEAR PRO X 8TB External Gaming Hard Drive for PS5 Game Console HDD</t>
+          <t>WD 14TB Elements Desktop, External Hard Drive - WDBWLG0140HBK-NESN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$109.99</t>
+          <t>$259.99</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>☆☆☆☆☆</t>
+          <t>★★★★★</t>
         </is>
       </c>
     </row>
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Avolusion PRO-Z Series 12TB USB 3.0 External Hard Drive for WindowsOS PC, Laptop</t>
+          <t>WD_BLACK 5TB P10 Game Drive for Xbox, Certified Refurbished Portable External</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$129.99</t>
+          <t>$99.99</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SanDisk Professional 2TB G-DRIVE ArmorATD External Hard Drive SDPH81G-002T-GBA1D</t>
+          <t>WD My Passport 1TB Portable External Hard Disk Drive Storage HDD for Windows PC</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$104.99</t>
+          <t>$32.00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>☆☆☆☆☆</t>
+          <t>★★★★★</t>
         </is>
       </c>
     </row>
@@ -1343,17 +1343,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>WD 2TB My Passport for Mac, Portable External Hard Drive - WDBA2D0020BBL-WESN</t>
+          <t>Seagate Portable 2TB External Hard Drive HDD USB 3.0 (STGX2000400)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$79.99</t>
+          <t>$52.03</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>★★★★½</t>
+          <t>★★★★★</t>
         </is>
       </c>
     </row>
@@ -1365,17 +1365,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Western Digital WD WDBEPK5000ABK-WESN 500GB USB 3.0 External Hard Drive NEW</t>
+          <t>6TB EXTERNAL HARD DRIVE 2.5" HDD BASIC STORAGE USB 3.0 *BRAND NEW OPEN BOX*</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$39.99</t>
+          <t>$44.99</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>★★★★★</t>
+          <t>☆☆☆☆☆</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1387,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Avolusion 1TB USB 3.0 Portable External Gaming Hard Drive for XBOX Series X|S</t>
+          <t>Western Digital WD WDBEPK5000ABK-WESN 500GB USB 3.0 External Hard Drive NEW</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$48.99</t>
+          <t>$39.99</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>★★★★½</t>
+          <t>★★★★★</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Western Digital 2TB Certified Refurbished My Passport Ultra- RWDBC3C0020BSL-WESN</t>
+          <t>Avolusion 1TB USB 3.0 Portable External Gaming Hard Drive for XBOX Series X|S</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$59.99</t>
+          <t>$48.99</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>★★★★★</t>
+          <t>★★★★½</t>
         </is>
       </c>
     </row>
@@ -1431,17 +1431,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>New ListingWD 4TB My Passport - Portable External Hard Drive -Black- NEW SEALED!</t>
+          <t>WD External Hard Drive My Passport 2 TB Password Protection Stockage Portable</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$89.99</t>
+          <t>$16.50</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>★★★★★</t>
+          <t>☆☆☆☆☆</t>
         </is>
       </c>
     </row>
@@ -1453,17 +1453,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>WD_BLACK 2TB Certified Refurbished P10 Game Drive, HDD - RWDBA2W0020BBK-WESN</t>
+          <t>WD 2TB My Passport for Mac, Portable External Hard Drive - WDBA2D0020BBL-WESN</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$59.99</t>
+          <t>$79.99</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>☆☆☆☆☆</t>
+          <t>★★★★½</t>
         </is>
       </c>
     </row>
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>WD 2TB My Passport, Portable External Hard Drive, White - WDBYVG0020BWT-WESN</t>
+          <t>Avolusion PRO-5X Series 12TB USB 3.0 External Hard Drive for WindowsOS PC Laptop</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$69.99</t>
+          <t>$129.99</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,17 +1497,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>WD 4TB My Passport, Portable External Hard Drive, Black - WDBPKJ0040BBK-WESN</t>
+          <t>WD 2TB My Passport, Portable External Hard Drive, White - WDBYVG0020BWT-WESN</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$109.99</t>
+          <t>$69.99</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>★★★★★</t>
+          <t>☆☆☆☆☆</t>
         </is>
       </c>
     </row>
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>WD 14TB Elements Desktop, External Hard Drive - WDBWLG0140HBK-NESN</t>
+          <t>New ListingSeagate STKR6000400 Expansion 6TB External Hard Drive</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$259.99</t>
+          <t>$59.00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Avolusion 500GB USB 3.0 Portable External Gaming Hard Drive for XBOX Series X|S</t>
+          <t>Avolusion HD250U3-Z1-PRO 1TB USB 3.0 Portable External Gaming PS4 Hard Drive</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$26.99</t>
+          <t>$39.99</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,17 +1563,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Seagate 5 TB External Hard Drive, STGX5000400 ~ NEW SEALED</t>
+          <t>Avolusion 500GB USB 3.0 Portable External Gaming Hard Drive for XBOX Series X|S</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$99.99</t>
+          <t>$26.99</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>★★★★★</t>
+          <t>☆☆☆☆☆</t>
         </is>
       </c>
     </row>
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Avolusion HD250U3-Z1-PRO 1TB USB 3.0 Portable External Gaming PS4 Hard Drive</t>
+          <t>USB 3.0 2TB SATA SSD External Hard Drive Portable Desktop Mobile Hard Disk Case</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$39.99</t>
+          <t>$13.05</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>New ListingSeagate STKR6000400 Expansion 6TB External Hard Drive</t>
+          <t>WD 4TB My Passport - Portable External Hard Drive -Black- NEW SEALED!</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$59.00</t>
+          <t>$89.99</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>WD Elements 20TB USB 3.0 3.5" Desktop External Hard Drive WDBWLG0200HBK-NESN</t>
+          <t>LaCie d2 Quadra External 1TB Hard Drive</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$295.00</t>
+          <t>$25.00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Hot External Hard Drive 2TB Capacity USB 3.0 450Mbps High Speed Plug And Play</t>
+          <t>WD Elements 20TB USB 3.0 3.5" Desktop External Hard Drive WDBWLG0200HBK-NESN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$31.62</t>
+          <t>$295.00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,17 +1695,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>WD My Passport 1TB Portable External Hard Disk Drive Storage HDD for Windows PC</t>
+          <t>Hot External Hard Drive 2TB Capacity USB 3.0 450Mbps High Speed Plug And Play</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$32.00</t>
+          <t>$31.62</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>★★★★★</t>
+          <t>☆☆☆☆☆</t>
         </is>
       </c>
     </row>
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>WD External Hard Drive My Passport 2 TB Password Protection Stockage Portable</t>
+          <t>2.5" External Hard Drive Box 1TB Portable Hard Disk USB3.0 High Speed I3A6</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$15.50</t>
+          <t>$16.99</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>USB 3.0 2TB SATA SSD External Hard Drive Portable Desktop Mobile Hard Disk Case</t>
+          <t>Seagate 8TB External Desktop Drive USB 3.0 Black | Tested Works Great!</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$13.05</t>
+          <t>$53.00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>☆☆☆☆☆</t>
+          <t>★★★★★</t>
         </is>
       </c>
     </row>
@@ -1761,17 +1761,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Western Digital 500GB WD5000LMVW-11VEDS0 2.5" USB 3.0 External Hard Disk Drive</t>
+          <t>Avolusion PRO-5X 6TB USB 3.0 External Gaming Hard Drive for PS5 Game Console</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$24.50</t>
+          <t>$89.99</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>☆☆☆☆☆</t>
+          <t>★★★½☆</t>
         </is>
       </c>
     </row>
@@ -1783,17 +1783,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Western Digital My Book Hard Drive ENCLOSURE ONLY SEE BELOW wdbbgb0180hbk-nb</t>
+          <t>Avolusion PRO-Z Series 6TB USB 3.0 External Hard Drive for Windows PC / Laptop</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$21.99</t>
+          <t>$89.99</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>☆☆☆☆☆</t>
+          <t>★★★★½</t>
         </is>
       </c>
     </row>
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>WD My Passport 2TB Portable External Hard Drive USB 3.2 Gen 1 WHITE + Tracking#</t>
+          <t>7200rpm 500GB External USB 3.0 2.5" SATA Hard Disk Drive SMART Verified PC Mac</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$107.22</t>
+          <t>$18.00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LaCie d2 Quadra External 1TB Hard Drive</t>
+          <t>Western Digital WDBABV5000ABK-00 500GB External Hard Drive/HDD | Tested Working</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$25.00</t>
+          <t>$19.89</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>New ListingWD Western Digital Elements 2TB External Portable HDD WDBU6Y0020BBK-01 (READ)</t>
+          <t>New ListingToshiba DWC120 2TB Canvio Desktop External HD W AC &amp; USB CABLE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$18.00</t>
+          <t>$22.00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,17 +1871,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>New ListingSeagate Portable 2N1AP5-500 2TB 2000GB USB 3.0 External Hard Drive HDD -NO POWER</t>
+          <t>LaCie 1TB, Rugged, Thunderbolt 2 / USB Micro-B, External Hard Drive LRD0TU1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$12.00</t>
+          <t>$34.95</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>★★★★★</t>
+          <t>☆☆☆☆☆</t>
         </is>
       </c>
     </row>
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LaCie 1TB, Rugged, Thunderbolt 2 / USB Micro-B, External Hard Drive LRD0TU1</t>
+          <t>LaCie Rugged External Hard Drive HDD - 500 GB  - USB 3 - 100% --4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$34.95</t>
+          <t>$29.00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,17 +1915,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>New ListingSeagate - 2TB External USB 3.0 Portable Hard Drive with Rescue Data Recovery</t>
+          <t>Seagate External Hard Drive HDD - 2TB  - USB 3 - 100% --18</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$36.00</t>
+          <t>$49.00</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>★★★★★</t>
+          <t>☆☆☆☆☆</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>WD Elements Desktop External Hard Drive 14TB USB 3.0 - WDBWLG0140HBK</t>
+          <t>LaCie Rugged External Hard Drive HDD - 2TB  - USB 3 - 100% --7</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$139.99</t>
+          <t>$49.00</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>LaCie Rugged External Hard Drive HDD - 500 GB  - USB 3 - 100% --3</t>
+          <t>WD Elements Desktop External Hard Drive 14TB USB 3.0 - WDBWLG0140HBK</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$29.00</t>
+          <t>$139.99</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>LaCie Rugged External Hard Drive HDD - 500 GB  - USB 3 - 100% --4</t>
+          <t>LaCie Rugged External Hard Drive HDD - 500 GB  - USB 3 - 100% --3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Seagate External Hard Drive HDD - 2TB  - USB 3 - 100% --18</t>
+          <t>WD Western Digital My Passport Ultra 500GB USB 3.0 External HDD WDBPGC5000ABK-03</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$49.00</t>
+          <t>$25.00</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Seagate 8TB External Desktop Drive USB 3.0 Black | Tested Works Great!</t>
+          <t>WD My Passport 4tb External USB 3.0 Portable Hard Drive Black Wdbyft0040bbk-oa</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$50.00</t>
+          <t>$20.00</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>★★★★★</t>
+          <t>☆☆☆☆☆</t>
         </is>
       </c>
     </row>
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Seagate Backup Expansion Portable Drive 1.0 TB External Hard Drive SRD00F1 Black</t>
+          <t>LaCie External Hard Drive HDD - 500 GB  - USB 3 - 100% --2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$26.99</t>
+          <t>$29.00</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>New ListingSeagate Game Drive 2TB Portable Hard Drive</t>
+          <t>Three 3 Terabyte Western Digital 3TB My Passport External Hard Drive</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$12.99</t>
+          <t>$38.00</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Seagate SRD0NF1 Expansion Portable 1TB External Hard Drive 2N1AP4-500 Minor Wear</t>
+          <t>Western Digital External Hard Drive HDD - 2TB  - USB 3 - 100% --24</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$34.95</t>
+          <t>$49.00</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>New ListingThree 3 Terabyte Western Digital 3TB My Passport External Hard Drive</t>
+          <t>Western Digital My Book Hard Drive ENCLOSURE ONLY SEE BELOW wdbbgb0180hbk-nb</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$38.00</t>
+          <t>$21.99</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>LaCie Rugged External Hard Drive HDD - 2TB  - USB 3 - 100% --7</t>
+          <t>Western Digital External Hard Drive HDD - 2TB  - USB 3 - 100% --21</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2179,17 +2179,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Seagate External Hard Drive HDD - 1TB  - USB 3 - 100% --10</t>
+          <t>Seagate LaCie Rugged 1TB Portable External Hard Drive HDD USB-C For Pc &amp; Mac</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$39.00</t>
+          <t>$48.00</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>☆☆☆☆☆</t>
+          <t>★★★★½</t>
         </is>
       </c>
     </row>
@@ -2201,17 +2201,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Western Digital External Hard Drive HDD - 2TB  - USB 3 - 100% --24</t>
+          <t>New ListingNew Toshiba Canvio Advance Plus Portable Storage 4TB DTCA40</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$49.00</t>
+          <t>$69.99</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>☆☆☆☆☆</t>
+          <t>★★★★½</t>
         </is>
       </c>
     </row>
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>iomega 2TB External Hard Drive LDHD-UP2 31882300 Tested</t>
+          <t>WD 6TB My Passport Ultra, Portable External Hard Drive, Blue, WDBEJA0060BBL-WESN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$9.99</t>
+          <t>$199.99</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,59 +2245,15 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>LaCie Rugged Mini 2TB USB 3.0 External Hard Drive RUGU3M2</t>
+          <t>WD 44TB My Book Duo, Desktop External Hard Drive - WDBFBE0440JBK-NESN</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$44.95</t>
+          <t>$1,199.99</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
-        <is>
-          <t>☆☆☆☆☆</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Ebay</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>WD 2TB My Passport Portable External Hard Drive, Silicon Grey WDBWML0020BGY-WESN</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>$84.99</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>☆☆☆☆☆</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Ebay</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>WD 44TB My Book Duo, Desktop External Hard Drive - WDBFBE0440JBK-NESN</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>$1,199.99</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
         <is>
           <t>☆☆☆☆☆</t>
         </is>
